--- a/NEG_Metabolites_Hetmap.xlsx
+++ b/NEG_Metabolites_Hetmap.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Tesis-Pablo-Corella\U_sagittifolia_tubers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040DAD55-4350-4C0B-9223-D88F0A9DB8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75006333-5A67-4CA8-917B-F52D66726766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="To-Heat-map" sheetId="3" r:id="rId2"/>
     <sheet name="To-Heat-map-NOQC" sheetId="4" r:id="rId3"/>
+    <sheet name="To-ComplexHeatmap" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1661">
   <si>
     <t xml:space="preserve">A </t>
   </si>
@@ -4983,6 +4984,39 @@
   </si>
   <si>
     <t>Isoquercitrin</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>Saccharide</t>
+  </si>
+  <si>
+    <t>Flavonoied</t>
+  </si>
+  <si>
+    <t>Nucleosides</t>
+  </si>
+  <si>
+    <t>Carboxylic Acid</t>
+  </si>
+  <si>
+    <t>Amino Acid Derivative</t>
+  </si>
+  <si>
+    <t>Pyridines</t>
+  </si>
+  <si>
+    <t>Amino Acid</t>
   </si>
 </sst>
 </file>
@@ -84288,7 +84322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B816F31-65F7-467E-9D39-06F3B3544975}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -85451,4 +85485,1283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2C99DE-BCF2-4A5C-BDBB-677943C3CC01}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B2">
+        <v>33373.7275252279</v>
+      </c>
+      <c r="C2">
+        <v>21970.872521390302</v>
+      </c>
+      <c r="D2">
+        <v>9243.2580244949095</v>
+      </c>
+      <c r="E2">
+        <v>10641.018574685701</v>
+      </c>
+      <c r="F2">
+        <v>8568.5515084643193</v>
+      </c>
+      <c r="G2">
+        <v>8135.9941077959902</v>
+      </c>
+      <c r="H2">
+        <v>14149.4044622697</v>
+      </c>
+      <c r="I2">
+        <v>4401.1994388157</v>
+      </c>
+      <c r="J2">
+        <v>6341.7060798807097</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B3">
+        <v>18232.3542185935</v>
+      </c>
+      <c r="C3">
+        <v>16820.087256709601</v>
+      </c>
+      <c r="D3">
+        <v>11292.3824738772</v>
+      </c>
+      <c r="E3">
+        <v>5004.46060819801</v>
+      </c>
+      <c r="F3">
+        <v>4831.1973640358301</v>
+      </c>
+      <c r="G3">
+        <v>3899.7660760431399</v>
+      </c>
+      <c r="H3">
+        <v>6818.0813075773103</v>
+      </c>
+      <c r="I3">
+        <v>3969.7329084848502</v>
+      </c>
+      <c r="J3">
+        <v>3500.3041010826901</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B4">
+        <v>109507.716803541</v>
+      </c>
+      <c r="C4">
+        <v>70431.017274548605</v>
+      </c>
+      <c r="D4">
+        <v>12113.9086460655</v>
+      </c>
+      <c r="E4">
+        <v>24795.057623440502</v>
+      </c>
+      <c r="F4">
+        <v>20691.356548053998</v>
+      </c>
+      <c r="G4">
+        <v>16635.652534724701</v>
+      </c>
+      <c r="H4">
+        <v>86258.884432188206</v>
+      </c>
+      <c r="I4">
+        <v>37762.216255532097</v>
+      </c>
+      <c r="J4">
+        <v>34061.532290786403</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B5">
+        <v>192026.10153818299</v>
+      </c>
+      <c r="C5">
+        <v>156352.959973355</v>
+      </c>
+      <c r="D5">
+        <v>101153.102687782</v>
+      </c>
+      <c r="E5">
+        <v>69143.149917589006</v>
+      </c>
+      <c r="F5">
+        <v>65211.518785059103</v>
+      </c>
+      <c r="G5">
+        <v>59425.429440976703</v>
+      </c>
+      <c r="H5">
+        <v>127096.489436217</v>
+      </c>
+      <c r="I5">
+        <v>80138.849950179996</v>
+      </c>
+      <c r="J5">
+        <v>63947.407334959003</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B6">
+        <v>241505.26515116499</v>
+      </c>
+      <c r="C6">
+        <v>198626.979319384</v>
+      </c>
+      <c r="D6">
+        <v>149669.714250027</v>
+      </c>
+      <c r="E6">
+        <v>223875.990736248</v>
+      </c>
+      <c r="F6">
+        <v>196311.70380818201</v>
+      </c>
+      <c r="G6">
+        <v>188668.75802774</v>
+      </c>
+      <c r="H6">
+        <v>9632.9302834394093</v>
+      </c>
+      <c r="I6">
+        <v>3736.8461852120199</v>
+      </c>
+      <c r="J6">
+        <v>45681.355009438601</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B7">
+        <v>223663.50186623301</v>
+      </c>
+      <c r="C7">
+        <v>285236.46794573299</v>
+      </c>
+      <c r="D7">
+        <v>241629.00706858301</v>
+      </c>
+      <c r="E7">
+        <v>252428.60641462001</v>
+      </c>
+      <c r="F7">
+        <v>249012.117615383</v>
+      </c>
+      <c r="G7">
+        <v>231476.25069954799</v>
+      </c>
+      <c r="H7">
+        <v>265588.11452159</v>
+      </c>
+      <c r="I7">
+        <v>244020.673404506</v>
+      </c>
+      <c r="J7">
+        <v>280235.17321773298</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B8">
+        <v>100855.360670875</v>
+      </c>
+      <c r="C8">
+        <v>68404.732402930094</v>
+      </c>
+      <c r="D8">
+        <v>14672.4123334961</v>
+      </c>
+      <c r="E8">
+        <v>76358.187056518305</v>
+      </c>
+      <c r="F8">
+        <v>68831.783081375106</v>
+      </c>
+      <c r="G8">
+        <v>56729.686568638499</v>
+      </c>
+      <c r="H8">
+        <v>2950.5382575797898</v>
+      </c>
+      <c r="I8">
+        <v>855.17900765056902</v>
+      </c>
+      <c r="J8">
+        <v>645.51923757564805</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B9">
+        <v>259713.931573707</v>
+      </c>
+      <c r="C9">
+        <v>225274.117397747</v>
+      </c>
+      <c r="D9">
+        <v>100223.02258011</v>
+      </c>
+      <c r="E9">
+        <v>145854.67919353399</v>
+      </c>
+      <c r="F9">
+        <v>118847.356466771</v>
+      </c>
+      <c r="G9">
+        <v>105793.004760057</v>
+      </c>
+      <c r="H9">
+        <v>27933.3901954018</v>
+      </c>
+      <c r="I9">
+        <v>17882.0916559629</v>
+      </c>
+      <c r="J9">
+        <v>23320.483906257701</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B10">
+        <v>30006.174494208699</v>
+      </c>
+      <c r="C10">
+        <v>23626.988577243701</v>
+      </c>
+      <c r="D10">
+        <v>11691.109374072999</v>
+      </c>
+      <c r="E10">
+        <v>38083.0615658971</v>
+      </c>
+      <c r="F10">
+        <v>27705.996830632699</v>
+      </c>
+      <c r="G10">
+        <v>23672.6658127796</v>
+      </c>
+      <c r="H10">
+        <v>58873.915962252198</v>
+      </c>
+      <c r="I10">
+        <v>18344.377400562102</v>
+      </c>
+      <c r="J10">
+        <v>60841.831389225503</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B11">
+        <v>288425.98358466203</v>
+      </c>
+      <c r="C11">
+        <v>143279.08888113601</v>
+      </c>
+      <c r="D11">
+        <v>13903.4527373041</v>
+      </c>
+      <c r="E11">
+        <v>136829.1026179</v>
+      </c>
+      <c r="F11">
+        <v>137333.219933035</v>
+      </c>
+      <c r="G11">
+        <v>117656.36697599701</v>
+      </c>
+      <c r="H11">
+        <v>3056.3627055592701</v>
+      </c>
+      <c r="I11">
+        <v>975.20951754762996</v>
+      </c>
+      <c r="J11">
+        <v>1162.77890750238</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B12">
+        <v>84759.178749864106</v>
+      </c>
+      <c r="C12">
+        <v>51772.489116891702</v>
+      </c>
+      <c r="D12">
+        <v>10418.000994211199</v>
+      </c>
+      <c r="E12">
+        <v>35659.022944405202</v>
+      </c>
+      <c r="F12">
+        <v>28906.305507905901</v>
+      </c>
+      <c r="G12">
+        <v>25026.073021865501</v>
+      </c>
+      <c r="H12">
+        <v>2838.0217183718701</v>
+      </c>
+      <c r="I12">
+        <v>1048.51668073464</v>
+      </c>
+      <c r="J12">
+        <v>2232.20492799673</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B13">
+        <v>182056.61225915799</v>
+      </c>
+      <c r="C13">
+        <v>111273.837625853</v>
+      </c>
+      <c r="D13">
+        <v>19251.493822463701</v>
+      </c>
+      <c r="E13">
+        <v>200278.44369087601</v>
+      </c>
+      <c r="F13">
+        <v>170849.149232689</v>
+      </c>
+      <c r="G13">
+        <v>138935.45825223101</v>
+      </c>
+      <c r="H13">
+        <v>6104.6858922890297</v>
+      </c>
+      <c r="I13">
+        <v>2561.7151887659302</v>
+      </c>
+      <c r="J13">
+        <v>592.505775229557</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B14">
+        <v>142273.64014741799</v>
+      </c>
+      <c r="C14">
+        <v>111164.397864507</v>
+      </c>
+      <c r="D14">
+        <v>62099.7267151462</v>
+      </c>
+      <c r="E14">
+        <v>44881.9534428556</v>
+      </c>
+      <c r="F14">
+        <v>35220.788483672302</v>
+      </c>
+      <c r="G14">
+        <v>31066.488801813299</v>
+      </c>
+      <c r="H14">
+        <v>42236.834425171597</v>
+      </c>
+      <c r="I14">
+        <v>15290.4359905413</v>
+      </c>
+      <c r="J14">
+        <v>28563.027190069799</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B15">
+        <v>9949181.5557852592</v>
+      </c>
+      <c r="C15">
+        <v>10534920.526988599</v>
+      </c>
+      <c r="D15">
+        <v>9761263.6525196806</v>
+      </c>
+      <c r="E15">
+        <v>9870587.8733053207</v>
+      </c>
+      <c r="F15">
+        <v>9593800.6684858091</v>
+      </c>
+      <c r="G15">
+        <v>9233931.7043885402</v>
+      </c>
+      <c r="H15">
+        <v>10457761.874199999</v>
+      </c>
+      <c r="I15">
+        <v>9097743.2353436891</v>
+      </c>
+      <c r="J15">
+        <v>9020265.0244919509</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B16">
+        <v>10456.962031167101</v>
+      </c>
+      <c r="C16">
+        <v>6440.8404733602001</v>
+      </c>
+      <c r="D16">
+        <v>2102.5650230733299</v>
+      </c>
+      <c r="E16">
+        <v>5005.0791773110504</v>
+      </c>
+      <c r="F16">
+        <v>4446.37050046489</v>
+      </c>
+      <c r="G16">
+        <v>3505.6244830140599</v>
+      </c>
+      <c r="H16">
+        <v>6128.0625934790096</v>
+      </c>
+      <c r="I16">
+        <v>4034.8717544054198</v>
+      </c>
+      <c r="J16">
+        <v>5551.3109871585602</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B17">
+        <v>90930.127712731599</v>
+      </c>
+      <c r="C17">
+        <v>61551.689588304696</v>
+      </c>
+      <c r="D17">
+        <v>29346.1885258211</v>
+      </c>
+      <c r="E17">
+        <v>50501.498327308502</v>
+      </c>
+      <c r="F17">
+        <v>40274.402127049601</v>
+      </c>
+      <c r="G17">
+        <v>35361.858415597002</v>
+      </c>
+      <c r="H17">
+        <v>48478.5628555558</v>
+      </c>
+      <c r="I17">
+        <v>19828.185724526698</v>
+      </c>
+      <c r="J17">
+        <v>19336.2266008591</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B18">
+        <v>7890958.4237609003</v>
+      </c>
+      <c r="C18">
+        <v>6527574.895916</v>
+      </c>
+      <c r="D18">
+        <v>1539033.8371753001</v>
+      </c>
+      <c r="E18">
+        <v>6847460.5331784803</v>
+      </c>
+      <c r="F18">
+        <v>6529011.7284430498</v>
+      </c>
+      <c r="G18">
+        <v>6006588.30162834</v>
+      </c>
+      <c r="H18">
+        <v>323689.27857352101</v>
+      </c>
+      <c r="I18">
+        <v>114959.08695744</v>
+      </c>
+      <c r="J18">
+        <v>38203.320870658798</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B19">
+        <v>28341.493141764899</v>
+      </c>
+      <c r="C19">
+        <v>21072.064400666201</v>
+      </c>
+      <c r="D19">
+        <v>13672.5014475152</v>
+      </c>
+      <c r="E19">
+        <v>76339.600853758195</v>
+      </c>
+      <c r="F19">
+        <v>59937.541403778901</v>
+      </c>
+      <c r="G19">
+        <v>49789.980315821696</v>
+      </c>
+      <c r="H19">
+        <v>89698.713735594996</v>
+      </c>
+      <c r="I19">
+        <v>37894.455243457203</v>
+      </c>
+      <c r="J19">
+        <v>44033.762067644398</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B20">
+        <v>70813.644648573696</v>
+      </c>
+      <c r="C20">
+        <v>61417.237269332603</v>
+      </c>
+      <c r="D20">
+        <v>35259.392658525197</v>
+      </c>
+      <c r="E20">
+        <v>89466.301101173696</v>
+      </c>
+      <c r="F20">
+        <v>60674.201979038597</v>
+      </c>
+      <c r="G20">
+        <v>57389.257460253502</v>
+      </c>
+      <c r="H20">
+        <v>53579.410878616</v>
+      </c>
+      <c r="I20">
+        <v>20129.511345655101</v>
+      </c>
+      <c r="J20">
+        <v>16805.846926748101</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B21">
+        <v>40437.731524926501</v>
+      </c>
+      <c r="C21">
+        <v>57778.3246773965</v>
+      </c>
+      <c r="D21">
+        <v>23482.629683621501</v>
+      </c>
+      <c r="E21">
+        <v>46870.142494304797</v>
+      </c>
+      <c r="F21">
+        <v>36098.026530161798</v>
+      </c>
+      <c r="G21">
+        <v>32263.8896259006</v>
+      </c>
+      <c r="H21">
+        <v>54953.532690324901</v>
+      </c>
+      <c r="I21">
+        <v>23102.276138585701</v>
+      </c>
+      <c r="J21">
+        <v>31897.606812374899</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B22">
+        <v>161805.92329631501</v>
+      </c>
+      <c r="C22">
+        <v>90613.966049791401</v>
+      </c>
+      <c r="D22">
+        <v>12516.099878422399</v>
+      </c>
+      <c r="E22">
+        <v>52668.563834607099</v>
+      </c>
+      <c r="F22">
+        <v>44986.573332926797</v>
+      </c>
+      <c r="G22">
+        <v>34837.975994467903</v>
+      </c>
+      <c r="H22">
+        <v>1478.2366595861199</v>
+      </c>
+      <c r="I22">
+        <v>537.13739133300498</v>
+      </c>
+      <c r="J22">
+        <v>636.51133221222301</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B23">
+        <v>429784.86067004199</v>
+      </c>
+      <c r="C23">
+        <v>285781.97317254799</v>
+      </c>
+      <c r="D23">
+        <v>89950.850280295301</v>
+      </c>
+      <c r="E23">
+        <v>166345.43613721</v>
+      </c>
+      <c r="F23">
+        <v>134502.63275377001</v>
+      </c>
+      <c r="G23">
+        <v>113347.16580896299</v>
+      </c>
+      <c r="H23">
+        <v>142621.19515435799</v>
+      </c>
+      <c r="I23">
+        <v>60989.675111356599</v>
+      </c>
+      <c r="J23">
+        <v>99079.979333070602</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B24">
+        <v>335811.37397513201</v>
+      </c>
+      <c r="C24">
+        <v>291060.47369314701</v>
+      </c>
+      <c r="D24">
+        <v>178709.346341695</v>
+      </c>
+      <c r="E24">
+        <v>191448.49599439299</v>
+      </c>
+      <c r="F24">
+        <v>159818.51809886401</v>
+      </c>
+      <c r="G24">
+        <v>141976.90094859601</v>
+      </c>
+      <c r="H24">
+        <v>409092.96673769498</v>
+      </c>
+      <c r="I24">
+        <v>161365.578487917</v>
+      </c>
+      <c r="J24">
+        <v>175305.276394327</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B25">
+        <v>66605.482283439502</v>
+      </c>
+      <c r="C25">
+        <v>53479.212712284098</v>
+      </c>
+      <c r="D25">
+        <v>20941.241674348701</v>
+      </c>
+      <c r="E25">
+        <v>25761.525154588799</v>
+      </c>
+      <c r="F25">
+        <v>18384.0723362715</v>
+      </c>
+      <c r="G25">
+        <v>14243.898316641</v>
+      </c>
+      <c r="H25">
+        <v>42058.774666043799</v>
+      </c>
+      <c r="I25">
+        <v>14604.0340478577</v>
+      </c>
+      <c r="J25">
+        <v>16513.7988490549</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B26">
+        <v>4312671.9496259401</v>
+      </c>
+      <c r="C26">
+        <v>2796296.5223545898</v>
+      </c>
+      <c r="D26">
+        <v>203924.77754910401</v>
+      </c>
+      <c r="E26">
+        <v>2744221.5288205598</v>
+      </c>
+      <c r="F26">
+        <v>2425588.8386232401</v>
+      </c>
+      <c r="G26">
+        <v>1908691.67877127</v>
+      </c>
+      <c r="H26">
+        <v>46282.415178803603</v>
+      </c>
+      <c r="I26">
+        <v>17453.5218298457</v>
+      </c>
+      <c r="J26">
+        <v>6551.2348806514601</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B27">
+        <v>426586.73803174001</v>
+      </c>
+      <c r="C27">
+        <v>467587.88966283703</v>
+      </c>
+      <c r="D27">
+        <v>458895.96803182998</v>
+      </c>
+      <c r="E27">
+        <v>406103.64676026499</v>
+      </c>
+      <c r="F27">
+        <v>315212.80546123098</v>
+      </c>
+      <c r="G27">
+        <v>270328.667072171</v>
+      </c>
+      <c r="H27">
+        <v>448004.57197276602</v>
+      </c>
+      <c r="I27">
+        <v>189529.68252290701</v>
+      </c>
+      <c r="J27">
+        <v>104061.616042141</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B28">
+        <v>109211.53688102499</v>
+      </c>
+      <c r="C28">
+        <v>85542.127609993695</v>
+      </c>
+      <c r="D28">
+        <v>46485.412977044798</v>
+      </c>
+      <c r="E28">
+        <v>54250.810141124297</v>
+      </c>
+      <c r="F28">
+        <v>43267.478760612998</v>
+      </c>
+      <c r="G28">
+        <v>33657.7069636991</v>
+      </c>
+      <c r="H28">
+        <v>46411.514219893499</v>
+      </c>
+      <c r="I28">
+        <v>18341.910105160699</v>
+      </c>
+      <c r="J28">
+        <v>18373.896030504398</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B29">
+        <v>84128.994308338602</v>
+      </c>
+      <c r="C29">
+        <v>57088.932690836897</v>
+      </c>
+      <c r="D29">
+        <v>21858.075590908698</v>
+      </c>
+      <c r="E29">
+        <v>35985.927201763297</v>
+      </c>
+      <c r="F29">
+        <v>29131.498442096701</v>
+      </c>
+      <c r="G29">
+        <v>24853.366618832901</v>
+      </c>
+      <c r="H29">
+        <v>42809.466828503697</v>
+      </c>
+      <c r="I29">
+        <v>18526.9148406846</v>
+      </c>
+      <c r="J29">
+        <v>30123.4974141606</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B30">
+        <v>35065.555798193702</v>
+      </c>
+      <c r="C30">
+        <v>101809.572904656</v>
+      </c>
+      <c r="D30">
+        <v>79150.509333310794</v>
+      </c>
+      <c r="E30">
+        <v>133741.89593832701</v>
+      </c>
+      <c r="F30">
+        <v>145669.33950648701</v>
+      </c>
+      <c r="G30">
+        <v>155809.50122567199</v>
+      </c>
+      <c r="H30">
+        <v>117230.563570039</v>
+      </c>
+      <c r="I30">
+        <v>170158.496913952</v>
+      </c>
+      <c r="J30">
+        <v>230329.23157470601</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B31">
+        <v>38246.935133372397</v>
+      </c>
+      <c r="C31">
+        <v>49109.079767437499</v>
+      </c>
+      <c r="D31">
+        <v>23229.578444454</v>
+      </c>
+      <c r="E31">
+        <v>114724.963008689</v>
+      </c>
+      <c r="F31">
+        <v>107132.193650475</v>
+      </c>
+      <c r="G31">
+        <v>94455.087311883006</v>
+      </c>
+      <c r="H31">
+        <v>23572.937926939401</v>
+      </c>
+      <c r="I31">
+        <v>13482.845570716499</v>
+      </c>
+      <c r="J31">
+        <v>10060.5757241882</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B32">
+        <v>80408.265521792695</v>
+      </c>
+      <c r="C32">
+        <v>52795.800507642103</v>
+      </c>
+      <c r="D32">
+        <v>18377.2349804279</v>
+      </c>
+      <c r="E32">
+        <v>24172.037603186302</v>
+      </c>
+      <c r="F32">
+        <v>20709.225535832698</v>
+      </c>
+      <c r="G32">
+        <v>17204.528975365101</v>
+      </c>
+      <c r="H32">
+        <v>26425.1032019062</v>
+      </c>
+      <c r="I32">
+        <v>12571.805558639</v>
+      </c>
+      <c r="J32">
+        <v>16094.6998675902</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B33">
+        <v>90592.119270990297</v>
+      </c>
+      <c r="C33">
+        <v>57308.606773662301</v>
+      </c>
+      <c r="D33">
+        <v>25292.437678449602</v>
+      </c>
+      <c r="E33">
+        <v>81021.438647127594</v>
+      </c>
+      <c r="F33">
+        <v>56952.050119192201</v>
+      </c>
+      <c r="G33">
+        <v>50107.423396559403</v>
+      </c>
+      <c r="H33">
+        <v>11467.939427113901</v>
+      </c>
+      <c r="I33">
+        <v>3865.7231734345</v>
+      </c>
+      <c r="J33">
+        <v>1558.58155216004</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B34">
+        <v>18826.935516403599</v>
+      </c>
+      <c r="C34">
+        <v>12557.501147057799</v>
+      </c>
+      <c r="D34">
+        <v>6400.39960193146</v>
+      </c>
+      <c r="E34">
+        <v>15022.418641739199</v>
+      </c>
+      <c r="F34">
+        <v>12150.504310877201</v>
+      </c>
+      <c r="G34">
+        <v>10397.6092396739</v>
+      </c>
+      <c r="H34">
+        <v>8190.8992916256102</v>
+      </c>
+      <c r="I34">
+        <v>2856.9055575377101</v>
+      </c>
+      <c r="J34">
+        <v>8370.4078766055809</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B35">
+        <v>29592.803172836499</v>
+      </c>
+      <c r="C35">
+        <v>19671.5919522609</v>
+      </c>
+      <c r="D35">
+        <v>6200.5705587364901</v>
+      </c>
+      <c r="E35">
+        <v>38297.913960097001</v>
+      </c>
+      <c r="F35">
+        <v>27405.207215172501</v>
+      </c>
+      <c r="G35">
+        <v>21091.801988557501</v>
+      </c>
+      <c r="H35">
+        <v>9847.3046876685603</v>
+      </c>
+      <c r="I35">
+        <v>2961.45853200478</v>
+      </c>
+      <c r="J35">
+        <v>6561.1558334052397</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B36">
+        <v>80408.265521792695</v>
+      </c>
+      <c r="C36">
+        <v>52795.800507642103</v>
+      </c>
+      <c r="D36">
+        <v>18377.2349804279</v>
+      </c>
+      <c r="E36">
+        <v>24172.037603186302</v>
+      </c>
+      <c r="F36">
+        <v>20709.225535832698</v>
+      </c>
+      <c r="G36">
+        <v>17204.528975365101</v>
+      </c>
+      <c r="H36">
+        <v>26425.1032019062</v>
+      </c>
+      <c r="I36">
+        <v>12571.805558639</v>
+      </c>
+      <c r="J36">
+        <v>16094.6998675902</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>